--- a/design_document/ポーカーアプリクラス設計.xlsx
+++ b/design_document/ポーカーアプリクラス設計.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="134">
   <si>
     <t>作成するべきクラス</t>
     <rPh sb="0" eb="2">
@@ -546,10 +546,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>analizePokerHand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PokerHand</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -731,10 +727,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>List&lt;Card&gt;, List&lt;Integer&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーの取捨選択状態を表示する</t>
     <rPh sb="5" eb="7">
       <t>シュシャ</t>
@@ -808,6 +800,45 @@
     <rPh sb="7" eb="9">
       <t>カイシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allCards</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dealCards</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーに配ったカード</t>
+    <rPh sb="5" eb="6">
+      <t>クバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>analyzePokerHand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set&lt;Integer&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;Card&gt;, Set&lt;Integer&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1289,7 +1320,7 @@
     </row>
     <row r="9" spans="8:11" x14ac:dyDescent="0.15">
       <c r="H9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1297,7 +1328,7 @@
     </row>
     <row r="10" spans="8:11" x14ac:dyDescent="0.15">
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
@@ -1344,7 +1375,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -1371,44 +1402,44 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -1435,7 +1466,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -1447,7 +1478,7 @@
         <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1551,6 +1584,9 @@
       <c r="F15" t="s">
         <v>54</v>
       </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
@@ -1561,6 +1597,9 @@
       </c>
       <c r="F16" t="s">
         <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -1667,7 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1706,10 +1747,24 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -1922,7 +1977,7 @@
         <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -1939,7 +1994,7 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>64</v>
@@ -2061,7 +2116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2116,10 +2173,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2128,7 +2185,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2204,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2180,10 +2237,10 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -2191,13 +2248,13 @@
         <v>71</v>
       </c>
       <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>93</v>
-      </c>
-      <c r="H9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2224,10 +2281,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2236,12 +2293,12 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2253,24 +2310,24 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2346,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2314,34 +2371,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>35</v>
@@ -2366,7 +2395,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -2378,12 +2407,12 @@
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -2392,27 +2421,27 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" t="s">
         <v>109</v>
-      </c>
-      <c r="J16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
         <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/design_document/ポーカーアプリクラス設計.xlsx
+++ b/design_document/ポーカーアプリクラス設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="クラス洗い出し" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="133">
   <si>
     <t>作成するべきクラス</t>
     <rPh sb="0" eb="2">
@@ -438,10 +438,6 @@
   </si>
   <si>
     <t>score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1274,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H3:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1320,7 +1316,7 @@
     </row>
     <row r="9" spans="8:11" x14ac:dyDescent="0.15">
       <c r="H9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1328,7 +1324,7 @@
     </row>
     <row r="10" spans="8:11" x14ac:dyDescent="0.15">
       <c r="H10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
@@ -1375,7 +1371,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -1402,44 +1398,44 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
         <v>116</v>
-      </c>
-      <c r="H8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
       </c>
       <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
         <v>119</v>
-      </c>
-      <c r="H9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" t="s">
         <v>121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -1466,7 +1462,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -1478,7 +1474,7 @@
         <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1581,7 @@
         <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -1599,7 +1595,7 @@
         <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -1747,7 +1743,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
         <v>52</v>
@@ -1758,13 +1754,13 @@
         <v>49</v>
       </c>
       <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
         <v>128</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>129</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -1891,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1974,10 +1970,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -1986,15 +1982,15 @@
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
         <v>64</v>
@@ -2003,15 +1999,15 @@
         <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
@@ -2020,15 +2016,15 @@
         <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
         <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2037,12 +2033,12 @@
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -2051,12 +2047,12 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
@@ -2070,7 +2066,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2124,7 +2120,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2173,10 +2169,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2185,7 +2181,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2200,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2237,10 +2233,10 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -2248,13 +2244,13 @@
         <v>71</v>
       </c>
       <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
         <v>91</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>92</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2281,10 +2277,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2293,12 +2289,12 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2310,24 +2306,24 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2346,7 +2342,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2395,7 +2391,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -2407,12 +2403,12 @@
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -2421,27 +2417,27 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="s">
         <v>108</v>
-      </c>
-      <c r="J16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
         <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/design_document/ポーカーアプリクラス設計.xlsx
+++ b/design_document/ポーカーアプリクラス設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="クラス洗い出し" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="PokerHandAnalyst" sheetId="7" r:id="rId7"/>
     <sheet name="PokerHand" sheetId="8" r:id="rId8"/>
     <sheet name="PokerPrinter" sheetId="9" r:id="rId9"/>
+    <sheet name="PlayerResponse" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="206">
   <si>
     <t>作成するべきクラス</t>
     <rPh sb="0" eb="2">
@@ -491,34 +492,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームを続行するかを決めて返答する</t>
-    <rPh sb="4" eb="6">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>addScore</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーのポイントを加算・減算する</t>
-    <rPh sb="11" eb="13">
-      <t>カサン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゲンサン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -687,16 +665,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーの現在のスコアを表示する</t>
-    <rPh sb="5" eb="7">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>printUserCards</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -811,30 +779,499 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>analyzePokerHand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set&lt;Integer&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;Card&gt;, Set&lt;Integer&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerHandAnalyst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>private</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dealCards</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーに配ったカード</t>
+    <t>pokerHandAnalyst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードの手役を解析するオブジェクト</t>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
     <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getPokerDealer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getPokerPlayer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getPokerPrinter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getPokerHandAnalyst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerDealer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerPlayer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerPrinter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerHandAnalyst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerDealerのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerPlayerのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerPrinterのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerHandAnalystのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GamePhase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gamePhase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの進行状況を現すオブジェクト</t>
+    <rPh sb="4" eb="6">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setGamePhase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GamePhase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GamePhaseのセッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修飾子</t>
+    <rPh sb="0" eb="3">
+      <t>シュウショクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getCardMark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードのマークを返却する</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIRST_DEAL_COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回に配る枚数値</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>クバ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>analyzePokerHand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set&lt;Integer&gt;</t>
+    <rPh sb="5" eb="7">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firstDistributeCards</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>List&lt;Card&gt;, Set&lt;Integer&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一引数で渡されたカードリストに、第二引数で指定された捨てる&lt;Index&gt;セット</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の番目に新たにカードをセットしなおして返却する</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getAllCards</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;Card&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドallCardsのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのゲームプレイ回数</t>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnumMap&lt;PokerHand, Integer&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pokerResultMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのポーカーゲーム結果</t>
+    <rPh sb="13" eb="15">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key:PokerHandクラスの全て, val: 0</t>
+    <rPh sb="17" eb="18">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerResponse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームを続行するか、やめるか、ステータスを見るかを決めて返答する</t>
+    <rPh sb="4" eb="6">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addGameCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのゲームカウントを1加算しその結果を返却する</t>
+    <rPh sb="15" eb="17">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数で与えられたポイントをプレイヤーのポイントに加算し、その結果を返却する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addPokerResultMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PokerHand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数で与えられたPokerHand(手役)をpokerResultMapのkeyに対応するvalueに1加算する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getGameCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドcardsのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドcardsのセッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドscoreのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドgameCountのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getPokerResultMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnumMap&lt;PokerHand, Integer&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドpokerResultMapのゲッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>printUserCardsResult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;Card&gt;, String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーのゲーム結果を表示する</t>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの現在のゲーム状況のスコアを表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map&lt;PokerHand, Integer&gt;, int, int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerResponseクラス(Enum)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返答内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getByResponse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数で渡された文字と一致するPlayerResponseを検索し返却する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンキャク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1270,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H3:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1316,7 +1753,7 @@
     </row>
     <row r="9" spans="8:11" x14ac:dyDescent="0.15">
       <c r="H9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1324,7 +1761,7 @@
     </row>
     <row r="10" spans="8:11" x14ac:dyDescent="0.15">
       <c r="H10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
@@ -1361,25 +1798,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1387,94 +1924,225 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="21" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
         <v>120</v>
       </c>
-      <c r="H10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" t="s">
-        <v>123</v>
+      <c r="H21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1485,25 +2153,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J20"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1511,16 +2177,19 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1528,13 +2197,16 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1542,18 +2214,21 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="21" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -1570,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -1581,10 +2256,10 @@
         <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>37</v>
       </c>
@@ -1595,7 +2270,7 @@
         <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -1645,23 +2320,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1669,16 +2344,19 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -1686,10 +2364,52 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="21" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1700,25 +2420,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1726,49 +2444,66 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -1781,13 +2516,13 @@
       <c r="H14" t="s">
         <v>56</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -1798,11 +2533,11 @@
       <c r="H15" t="s">
         <v>54</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>59</v>
       </c>
@@ -1810,35 +2545,23 @@
         <v>49</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>63</v>
@@ -1847,13 +2570,47 @@
         <v>54</v>
       </c>
       <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
         <v>54</v>
       </c>
-      <c r="J18" t="s">
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1861,20 +2618,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1885,23 +2634,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1909,16 +2664,19 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1926,32 +2684,81 @@
         <v>69</v>
       </c>
       <c r="F8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" t="s">
         <v>71</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -1968,12 +2775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -1985,12 +2792,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
         <v>64</v>
@@ -2007,7 +2814,7 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
@@ -2016,15 +2823,15 @@
         <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
         <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2033,35 +2840,38 @@
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" t="s">
-        <v>64</v>
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
@@ -2069,37 +2879,84 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>160</v>
+      </c>
+      <c r="F27" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2112,15 +2969,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2169,10 +3024,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2181,7 +3036,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2192,23 +3047,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -2216,16 +3071,19 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -2233,27 +3091,33 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>71</v>
       </c>
       <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="F9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
@@ -2277,10 +3141,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2289,12 +3153,12 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2306,24 +3170,24 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2334,15 +3198,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
@@ -2391,24 +3258,24 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -2417,27 +3284,44 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
